--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RXC170010\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/likarajo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EFD5A-588A-2C4A-97F8-5CF903981C8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>PERSON</t>
   </si>
@@ -59,9 +60,6 @@
     <t>CLASS1_PATIENT</t>
   </si>
   <si>
-    <t>Patient_Id</t>
-  </si>
-  <si>
     <t>Fk_Person</t>
   </si>
   <si>
@@ -90,12 +88,123 @@
   </si>
   <si>
     <t>Contact</t>
+  </si>
+  <si>
+    <t>TREATMENT_DETAILS</t>
+  </si>
+  <si>
+    <t>Fk_Medicine</t>
+  </si>
+  <si>
+    <t>Fk_Treatment</t>
+  </si>
+  <si>
+    <t>MEDICINE_ASSOC</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Treatment_Id</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>Medicine_Code</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Expiry_Date</t>
+  </si>
+  <si>
+    <t>DOCTOR</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Doc_Type</t>
+  </si>
+  <si>
+    <t>ROOM</t>
+  </si>
+  <si>
+    <t>Room_Id</t>
+  </si>
+  <si>
+    <t>Fk_Nurse</t>
+  </si>
+  <si>
+    <t>Room_Type</t>
+  </si>
+  <si>
+    <t>Start_Time</t>
+  </si>
+  <si>
+    <t>End_Time</t>
+  </si>
+  <si>
+    <t>RECEPTIONIST</t>
+  </si>
+  <si>
+    <t>NURSE</t>
+  </si>
+  <si>
+    <t>RECORD</t>
+  </si>
+  <si>
+    <t>Record_Id</t>
+  </si>
+  <si>
+    <t>Appointment_Date</t>
+  </si>
+  <si>
+    <t>Visit_Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Fk_Receptionist</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>Payment_Id</t>
+  </si>
+  <si>
+    <t>Payment_Date</t>
+  </si>
+  <si>
+    <t>Insurance_Id</t>
+  </si>
+  <si>
+    <t>Amount_Due</t>
+  </si>
+  <si>
+    <t>Cash_Amoount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,27 +558,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.1640625" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.1640625" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5" customWidth="1"/>
+    <col min="26" max="26" width="2.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.6640625" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,33 +611,95 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -518,18 +708,49 @@
         <v>9</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -542,8 +763,30 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -551,15 +794,34 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -571,21 +833,44 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -597,27 +882,29 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/likarajo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/likarajo/Work/GitHub/DallasCare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EFD5A-588A-2C4A-97F8-5CF903981C8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B6160A-F86B-3940-BACD-9BC913021071}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16140" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/likarajo/Work/GitHub/DallasCare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RXC170010\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B6160A-F86B-3940-BACD-9BC913021071}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16140" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16140" windowHeight="16665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>PERSON</t>
   </si>
@@ -111,9 +110,6 @@
     <t>Start_Date</t>
   </si>
   <si>
-    <t>End_Date</t>
-  </si>
-  <si>
     <t>MEDICINE</t>
   </si>
   <si>
@@ -186,9 +182,6 @@
     <t>PAYMENT</t>
   </si>
   <si>
-    <t>Payment_Id</t>
-  </si>
-  <si>
     <t>Payment_Date</t>
   </si>
   <si>
@@ -199,12 +192,45 @@
   </si>
   <si>
     <t>Cash_Amoount</t>
+  </si>
+  <si>
+    <t>Fk_Admission_Date</t>
+  </si>
+  <si>
+    <t>RECORD_MAINTENANCE</t>
+  </si>
+  <si>
+    <t>Fk_Record</t>
+  </si>
+  <si>
+    <t>INSURANCE</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Fk_Insurance</t>
+  </si>
+  <si>
+    <t>Visitor_Id</t>
+  </si>
+  <si>
+    <t>Duration_No</t>
+  </si>
+  <si>
+    <t>Duration_Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,46 +584,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.1640625" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.1640625" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5" customWidth="1"/>
-    <col min="26" max="26" width="2.6640625" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.6640625" customWidth="1"/>
-    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" customWidth="1"/>
+    <col min="29" max="29" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,29 +656,36 @@
         <v>25</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -665,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>17</v>
@@ -677,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>11</v>
@@ -689,17 +726,24 @@
         <v>11</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -713,10 +757,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>22</v>
@@ -740,17 +784,24 @@
         <v>27</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,34 +810,41 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,29 +857,34 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -833,24 +896,29 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="Q6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -862,15 +930,15 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="AA7" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -884,11 +952,10 @@
       <c r="G8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -896,15 +963,15 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
